--- a/data/pca/factorExposure/factorExposure_2012-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-26.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01682268605793398</v>
+        <v>-0.01653074918213955</v>
       </c>
       <c r="C2">
-        <v>0.03630940967344436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02895775489850624</v>
+      </c>
+      <c r="D2">
+        <v>7.782723212774679e-05</v>
+      </c>
+      <c r="E2">
+        <v>0.008991810296075979</v>
+      </c>
+      <c r="F2">
+        <v>-0.008451155532277828</v>
+      </c>
+      <c r="G2">
+        <v>-0.007584887667404588</v>
+      </c>
+      <c r="H2">
+        <v>-0.05942842949481562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07458205967494491</v>
+        <v>-0.08812731130635702</v>
       </c>
       <c r="C4">
-        <v>0.05409564695846159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03813286548853966</v>
+      </c>
+      <c r="D4">
+        <v>-0.0657414059873586</v>
+      </c>
+      <c r="E4">
+        <v>0.01772970397193182</v>
+      </c>
+      <c r="F4">
+        <v>-0.02990601961548352</v>
+      </c>
+      <c r="G4">
+        <v>-0.01061996371483519</v>
+      </c>
+      <c r="H4">
+        <v>0.04108727512211999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1080788439730729</v>
+        <v>-0.1197575619807718</v>
       </c>
       <c r="C6">
-        <v>0.05717662085363651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03415266793831151</v>
+      </c>
+      <c r="D6">
+        <v>-0.008505882147815365</v>
+      </c>
+      <c r="E6">
+        <v>-0.004777503537015548</v>
+      </c>
+      <c r="F6">
+        <v>-0.05793436056024594</v>
+      </c>
+      <c r="G6">
+        <v>-0.0264544743823009</v>
+      </c>
+      <c r="H6">
+        <v>-0.1121364049737271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04898493434716446</v>
+        <v>-0.06448504859424127</v>
       </c>
       <c r="C7">
-        <v>0.02697102587163874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0190478556914986</v>
+      </c>
+      <c r="D7">
+        <v>-0.0456027435042558</v>
+      </c>
+      <c r="E7">
+        <v>0.04111971507601876</v>
+      </c>
+      <c r="F7">
+        <v>-0.03262081421482428</v>
+      </c>
+      <c r="G7">
+        <v>0.04025313086522864</v>
+      </c>
+      <c r="H7">
+        <v>0.01748662171736287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03714656223557238</v>
+        <v>-0.04057452828669092</v>
       </c>
       <c r="C8">
-        <v>0.0118085417516426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007370437828653817</v>
+      </c>
+      <c r="D8">
+        <v>-0.02145920637899522</v>
+      </c>
+      <c r="E8">
+        <v>0.03618919006211906</v>
+      </c>
+      <c r="F8">
+        <v>-0.04729624478433207</v>
+      </c>
+      <c r="G8">
+        <v>-0.0483167496617985</v>
+      </c>
+      <c r="H8">
+        <v>-0.0008932214786761296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06744963080092035</v>
+        <v>-0.07979724225866329</v>
       </c>
       <c r="C9">
-        <v>0.04480351179036032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.029524028296956</v>
+      </c>
+      <c r="D9">
+        <v>-0.06332592640786722</v>
+      </c>
+      <c r="E9">
+        <v>0.04064894146052702</v>
+      </c>
+      <c r="F9">
+        <v>-0.03087534329144857</v>
+      </c>
+      <c r="G9">
+        <v>-0.009817862189255663</v>
+      </c>
+      <c r="H9">
+        <v>0.05266042231548656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02858739126460674</v>
+        <v>-0.03475881460644061</v>
       </c>
       <c r="C10">
-        <v>0.0345104475226594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04158768561370776</v>
+      </c>
+      <c r="D10">
+        <v>0.1718555692621241</v>
+      </c>
+      <c r="E10">
+        <v>0.05180301073238538</v>
+      </c>
+      <c r="F10">
+        <v>-0.04406599855480814</v>
+      </c>
+      <c r="G10">
+        <v>0.04295908673364658</v>
+      </c>
+      <c r="H10">
+        <v>-0.03797466401567309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07013745524938234</v>
+        <v>-0.07654974408703226</v>
       </c>
       <c r="C11">
-        <v>0.04797874141179763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02795305599827898</v>
+      </c>
+      <c r="D11">
+        <v>-0.06242380785045415</v>
+      </c>
+      <c r="E11">
+        <v>0.000381797717047621</v>
+      </c>
+      <c r="F11">
+        <v>-0.02675929785233293</v>
+      </c>
+      <c r="G11">
+        <v>0.004212040794192518</v>
+      </c>
+      <c r="H11">
+        <v>0.0972873509705604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05766752790370534</v>
+        <v>-0.06726905501464688</v>
       </c>
       <c r="C12">
-        <v>0.05154853230631989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03577690417469592</v>
+      </c>
+      <c r="D12">
+        <v>-0.04823189438926426</v>
+      </c>
+      <c r="E12">
+        <v>0.01580433571117753</v>
+      </c>
+      <c r="F12">
+        <v>-0.01882629377523</v>
+      </c>
+      <c r="G12">
+        <v>0.0005330378325972151</v>
+      </c>
+      <c r="H12">
+        <v>0.05371130629987998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05962529447229242</v>
+        <v>-0.06509538152192698</v>
       </c>
       <c r="C13">
-        <v>0.04112249635808456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02535749650247845</v>
+      </c>
+      <c r="D13">
+        <v>-0.04249386893817468</v>
+      </c>
+      <c r="E13">
+        <v>0.0142552626990172</v>
+      </c>
+      <c r="F13">
+        <v>-0.001051781478489699</v>
+      </c>
+      <c r="G13">
+        <v>0.008049788485754526</v>
+      </c>
+      <c r="H13">
+        <v>0.0482489900057986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03241866324929653</v>
+        <v>-0.04127522368435581</v>
       </c>
       <c r="C14">
-        <v>0.0325032845856503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02829960415552548</v>
+      </c>
+      <c r="D14">
+        <v>-0.004604908309860383</v>
+      </c>
+      <c r="E14">
+        <v>0.03344761959350543</v>
+      </c>
+      <c r="F14">
+        <v>-0.01071948354000067</v>
+      </c>
+      <c r="G14">
+        <v>-0.01124656453453788</v>
+      </c>
+      <c r="H14">
+        <v>0.05603964115242052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03908493737729251</v>
+        <v>-0.03998985519390634</v>
       </c>
       <c r="C15">
-        <v>0.01061275902965601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002967743848525437</v>
+      </c>
+      <c r="D15">
+        <v>-0.003234090478946264</v>
+      </c>
+      <c r="E15">
+        <v>0.04205128499413226</v>
+      </c>
+      <c r="F15">
+        <v>0.006399954303456557</v>
+      </c>
+      <c r="G15">
+        <v>-0.02789835654776341</v>
+      </c>
+      <c r="H15">
+        <v>0.03706998914922714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06084748781208653</v>
+        <v>-0.07061217152110047</v>
       </c>
       <c r="C16">
-        <v>0.04333969219850719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02792660163107992</v>
+      </c>
+      <c r="D16">
+        <v>-0.06223732255463741</v>
+      </c>
+      <c r="E16">
+        <v>0.008968943293926088</v>
+      </c>
+      <c r="F16">
+        <v>-0.02378303782049795</v>
+      </c>
+      <c r="G16">
+        <v>0.003975441631636371</v>
+      </c>
+      <c r="H16">
+        <v>0.06148670303098547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06385511097686317</v>
+        <v>-0.0632867727599689</v>
       </c>
       <c r="C20">
-        <v>0.03268572807607267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01389859028546374</v>
+      </c>
+      <c r="D20">
+        <v>-0.03978913105857688</v>
+      </c>
+      <c r="E20">
+        <v>0.03524235483068699</v>
+      </c>
+      <c r="F20">
+        <v>-0.01617837746361053</v>
+      </c>
+      <c r="G20">
+        <v>-0.01247602580271956</v>
+      </c>
+      <c r="H20">
+        <v>0.04877921530428034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02357625968901202</v>
+        <v>-0.02424382119973157</v>
       </c>
       <c r="C21">
-        <v>-0.002736913992968987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009132935781150401</v>
+      </c>
+      <c r="D21">
+        <v>-0.02815135720928856</v>
+      </c>
+      <c r="E21">
+        <v>0.04064838573238456</v>
+      </c>
+      <c r="F21">
+        <v>0.01580694902932803</v>
+      </c>
+      <c r="G21">
+        <v>-0.009578343912505158</v>
+      </c>
+      <c r="H21">
+        <v>-0.04828347520967216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07629924789286641</v>
+        <v>-0.07199520196706009</v>
       </c>
       <c r="C22">
-        <v>0.05822245972175413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03682990261249319</v>
+      </c>
+      <c r="D22">
+        <v>-0.06476555944059613</v>
+      </c>
+      <c r="E22">
+        <v>0.5581710539671008</v>
+      </c>
+      <c r="F22">
+        <v>0.2590645192686634</v>
+      </c>
+      <c r="G22">
+        <v>0.05873198539763871</v>
+      </c>
+      <c r="H22">
+        <v>-0.1707160880631347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07729368140987801</v>
+        <v>-0.07263205729645188</v>
       </c>
       <c r="C23">
-        <v>0.05714220060902567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0355224572545883</v>
+      </c>
+      <c r="D23">
+        <v>-0.06565594011636641</v>
+      </c>
+      <c r="E23">
+        <v>0.5576766690716899</v>
+      </c>
+      <c r="F23">
+        <v>0.2576238149022064</v>
+      </c>
+      <c r="G23">
+        <v>0.05704348572349378</v>
+      </c>
+      <c r="H23">
+        <v>-0.1657946883020851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07101154881855055</v>
+        <v>-0.08046082533584201</v>
       </c>
       <c r="C24">
-        <v>0.05187189055959914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03377187203209488</v>
+      </c>
+      <c r="D24">
+        <v>-0.05829113175381746</v>
+      </c>
+      <c r="E24">
+        <v>0.0200013936668065</v>
+      </c>
+      <c r="F24">
+        <v>-0.03402752595899999</v>
+      </c>
+      <c r="G24">
+        <v>-0.005787362558936722</v>
+      </c>
+      <c r="H24">
+        <v>0.0680897812800018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07079785542462662</v>
+        <v>-0.0779079911287177</v>
       </c>
       <c r="C25">
-        <v>0.05769567891394058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03859677815324347</v>
+      </c>
+      <c r="D25">
+        <v>-0.05101734535151599</v>
+      </c>
+      <c r="E25">
+        <v>0.02258571437427125</v>
+      </c>
+      <c r="F25">
+        <v>-0.02628911277979765</v>
+      </c>
+      <c r="G25">
+        <v>-0.01835916784581972</v>
+      </c>
+      <c r="H25">
+        <v>0.06673396012724274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04466802017232963</v>
+        <v>-0.04765493208621587</v>
       </c>
       <c r="C26">
-        <v>0.01032877428597744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.00196781376252606</v>
+      </c>
+      <c r="D26">
+        <v>-0.01764997981700448</v>
+      </c>
+      <c r="E26">
+        <v>0.05352741074254356</v>
+      </c>
+      <c r="F26">
+        <v>-0.01837018247703271</v>
+      </c>
+      <c r="G26">
+        <v>0.007057878283370005</v>
+      </c>
+      <c r="H26">
+        <v>0.05997744808181494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05144679791312711</v>
+        <v>-0.06194559849005512</v>
       </c>
       <c r="C28">
-        <v>0.07461506660321578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08303611960306496</v>
+      </c>
+      <c r="D28">
+        <v>0.3077395845666731</v>
+      </c>
+      <c r="E28">
+        <v>0.027447222994583</v>
+      </c>
+      <c r="F28">
+        <v>-0.05669983127854709</v>
+      </c>
+      <c r="G28">
+        <v>-0.02948166459573192</v>
+      </c>
+      <c r="H28">
+        <v>-0.04462812003183739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03999246069090545</v>
+        <v>-0.04839392622720586</v>
       </c>
       <c r="C29">
-        <v>0.03189773334437582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02607404677865739</v>
+      </c>
+      <c r="D29">
+        <v>-0.004534531020288403</v>
+      </c>
+      <c r="E29">
+        <v>0.05816722426803274</v>
+      </c>
+      <c r="F29">
+        <v>0.00158057058223582</v>
+      </c>
+      <c r="G29">
+        <v>0.005367028629425888</v>
+      </c>
+      <c r="H29">
+        <v>0.08367646150187938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1275868002652121</v>
+        <v>-0.1329294416392223</v>
       </c>
       <c r="C30">
-        <v>0.0966918134060757</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06445456424988855</v>
+      </c>
+      <c r="D30">
+        <v>-0.06917966525300086</v>
+      </c>
+      <c r="E30">
+        <v>0.08408743957341729</v>
+      </c>
+      <c r="F30">
+        <v>0.02421808207324181</v>
+      </c>
+      <c r="G30">
+        <v>-0.07122467472053239</v>
+      </c>
+      <c r="H30">
+        <v>-0.0389419071342252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04240639688137757</v>
+        <v>-0.04887692533357514</v>
       </c>
       <c r="C31">
-        <v>0.02076150779660502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01270613817036787</v>
+      </c>
+      <c r="D31">
+        <v>-0.02454764323479081</v>
+      </c>
+      <c r="E31">
+        <v>0.03147044109479431</v>
+      </c>
+      <c r="F31">
+        <v>-0.008428795743737652</v>
+      </c>
+      <c r="G31">
+        <v>0.02388525693698584</v>
+      </c>
+      <c r="H31">
+        <v>0.06456216687613989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03595348932802193</v>
+        <v>-0.03792031864803699</v>
       </c>
       <c r="C32">
-        <v>0.0223918492014221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01593062207475254</v>
+      </c>
+      <c r="D32">
+        <v>-0.01194395702077124</v>
+      </c>
+      <c r="E32">
+        <v>0.06780580428643365</v>
+      </c>
+      <c r="F32">
+        <v>0.02031171373487482</v>
+      </c>
+      <c r="G32">
+        <v>-0.03427475081402834</v>
+      </c>
+      <c r="H32">
+        <v>0.06999196942985923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08196969532304385</v>
+        <v>-0.09558958052880198</v>
       </c>
       <c r="C33">
-        <v>0.04521667755770697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02690551358015381</v>
+      </c>
+      <c r="D33">
+        <v>-0.04917756631589752</v>
+      </c>
+      <c r="E33">
+        <v>0.01558230908814495</v>
+      </c>
+      <c r="F33">
+        <v>-0.0005807983973043027</v>
+      </c>
+      <c r="G33">
+        <v>0.008795069937222766</v>
+      </c>
+      <c r="H33">
+        <v>0.07260796329860096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05632248150329371</v>
+        <v>-0.0623095362339622</v>
       </c>
       <c r="C34">
-        <v>0.02906192986669525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01351895312766451</v>
+      </c>
+      <c r="D34">
+        <v>-0.05353455846752148</v>
+      </c>
+      <c r="E34">
+        <v>0.0114932434242082</v>
+      </c>
+      <c r="F34">
+        <v>-0.01771188522321898</v>
+      </c>
+      <c r="G34">
+        <v>-0.006149320441684493</v>
+      </c>
+      <c r="H34">
+        <v>0.06069476730647731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0370165904696257</v>
+        <v>-0.04034883876950007</v>
       </c>
       <c r="C35">
-        <v>0.008769086044491321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002515561306497098</v>
+      </c>
+      <c r="D35">
+        <v>-0.006033833672420865</v>
+      </c>
+      <c r="E35">
+        <v>0.01752450069456015</v>
+      </c>
+      <c r="F35">
+        <v>0.0157149560678257</v>
+      </c>
+      <c r="G35">
+        <v>0.01175977726129821</v>
+      </c>
+      <c r="H35">
+        <v>0.02748331738711726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02047727784619621</v>
+        <v>-0.02730051971967623</v>
       </c>
       <c r="C36">
-        <v>0.01751562994707941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.013603801567274</v>
+      </c>
+      <c r="D36">
+        <v>-0.01177059770636537</v>
+      </c>
+      <c r="E36">
+        <v>0.04594973525210298</v>
+      </c>
+      <c r="F36">
+        <v>-0.01169844845512067</v>
+      </c>
+      <c r="G36">
+        <v>0.009320922375740826</v>
+      </c>
+      <c r="H36">
+        <v>0.04540076355626109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03975340778061645</v>
+        <v>-0.04394488901138609</v>
       </c>
       <c r="C38">
-        <v>0.002928499819543745</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002646989978031087</v>
+      </c>
+      <c r="D38">
+        <v>-0.01564778214496755</v>
+      </c>
+      <c r="E38">
+        <v>0.05419386262902694</v>
+      </c>
+      <c r="F38">
+        <v>0.01759317782298894</v>
+      </c>
+      <c r="G38">
+        <v>-0.01327682337943821</v>
+      </c>
+      <c r="H38">
+        <v>0.02805247538192647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08964845004323015</v>
+        <v>-0.1025350141049343</v>
       </c>
       <c r="C39">
-        <v>0.07220531513860162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05001244057364995</v>
+      </c>
+      <c r="D39">
+        <v>-0.06573106950227708</v>
+      </c>
+      <c r="E39">
+        <v>0.001768068901687162</v>
+      </c>
+      <c r="F39">
+        <v>-0.007452653842287557</v>
+      </c>
+      <c r="G39">
+        <v>-0.03505746451812282</v>
+      </c>
+      <c r="H39">
+        <v>0.06627691409393327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0742802714651398</v>
+        <v>-0.07222770977323702</v>
       </c>
       <c r="C40">
-        <v>0.04042325448856251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01915915870802348</v>
+      </c>
+      <c r="D40">
+        <v>-0.01075892166464339</v>
+      </c>
+      <c r="E40">
+        <v>0.01627392985539888</v>
+      </c>
+      <c r="F40">
+        <v>0.05467478666389811</v>
+      </c>
+      <c r="G40">
+        <v>-0.04159228571045356</v>
+      </c>
+      <c r="H40">
+        <v>-0.08891123221248148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04063757396566631</v>
+        <v>-0.04374910196876192</v>
       </c>
       <c r="C41">
-        <v>0.006409366406662981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001353686110402143</v>
+      </c>
+      <c r="D41">
+        <v>-0.03447321239692497</v>
+      </c>
+      <c r="E41">
+        <v>0.003661769016277095</v>
+      </c>
+      <c r="F41">
+        <v>0.01701148496628338</v>
+      </c>
+      <c r="G41">
+        <v>-0.01113919511691756</v>
+      </c>
+      <c r="H41">
+        <v>0.03598162498486809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04677377953536773</v>
+        <v>-0.05760788711824968</v>
       </c>
       <c r="C43">
-        <v>0.02596522056826623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01713581531779515</v>
+      </c>
+      <c r="D43">
+        <v>-0.02472651490182003</v>
+      </c>
+      <c r="E43">
+        <v>0.02084731457631063</v>
+      </c>
+      <c r="F43">
+        <v>-0.009560652345824976</v>
+      </c>
+      <c r="G43">
+        <v>0.01465268196258659</v>
+      </c>
+      <c r="H43">
+        <v>0.05515589621219707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09299489740967007</v>
+        <v>-0.09470479856435357</v>
       </c>
       <c r="C44">
-        <v>0.09383987450732174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06453652317381048</v>
+      </c>
+      <c r="D44">
+        <v>-0.06016641146741396</v>
+      </c>
+      <c r="E44">
+        <v>0.09704021301009054</v>
+      </c>
+      <c r="F44">
+        <v>-0.03314916778536386</v>
+      </c>
+      <c r="G44">
+        <v>-0.02984615062185266</v>
+      </c>
+      <c r="H44">
+        <v>0.0126259278654493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02530232690909348</v>
+        <v>-0.03340531737398522</v>
       </c>
       <c r="C46">
-        <v>0.01447013804742791</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01117362223613353</v>
+      </c>
+      <c r="D46">
+        <v>-0.03038399968623274</v>
+      </c>
+      <c r="E46">
+        <v>0.03245745436054659</v>
+      </c>
+      <c r="F46">
+        <v>-0.01386744470116117</v>
+      </c>
+      <c r="G46">
+        <v>-0.002178526839857348</v>
+      </c>
+      <c r="H46">
+        <v>0.03729602971972463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03059472165708417</v>
+        <v>-0.03838374987516973</v>
       </c>
       <c r="C47">
-        <v>0.02551399904294611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01995335992542643</v>
+      </c>
+      <c r="D47">
+        <v>-0.009026497942939516</v>
+      </c>
+      <c r="E47">
+        <v>0.05146890676938221</v>
+      </c>
+      <c r="F47">
+        <v>-0.006075471992787376</v>
+      </c>
+      <c r="G47">
+        <v>0.03810946764194151</v>
+      </c>
+      <c r="H47">
+        <v>0.02719038405235234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03197608629186849</v>
+        <v>-0.03781426100540537</v>
       </c>
       <c r="C48">
-        <v>0.01663342167377693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01017368981377127</v>
+      </c>
+      <c r="D48">
+        <v>-0.01839861883016913</v>
+      </c>
+      <c r="E48">
+        <v>0.0437711411134607</v>
+      </c>
+      <c r="F48">
+        <v>4.845029267928463e-05</v>
+      </c>
+      <c r="G48">
+        <v>-0.01094139808151026</v>
+      </c>
+      <c r="H48">
+        <v>0.04509828586936644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1614033396207002</v>
+        <v>-0.1903263506618032</v>
       </c>
       <c r="C49">
-        <v>0.06501869361137816</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.0350243509682858</v>
+      </c>
+      <c r="D49">
+        <v>-0.03213369945866342</v>
+      </c>
+      <c r="E49">
+        <v>-0.1423397624299607</v>
+      </c>
+      <c r="F49">
+        <v>-0.07414290437728575</v>
+      </c>
+      <c r="G49">
+        <v>0.06276996660258657</v>
+      </c>
+      <c r="H49">
+        <v>-0.2438019648027971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0390879799955518</v>
+        <v>-0.04606291430219839</v>
       </c>
       <c r="C50">
-        <v>0.02404243588501911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01669008424580605</v>
+      </c>
+      <c r="D50">
+        <v>-0.02906853118051085</v>
+      </c>
+      <c r="E50">
+        <v>0.05445311178846415</v>
+      </c>
+      <c r="F50">
+        <v>-0.007968307450334271</v>
+      </c>
+      <c r="G50">
+        <v>0.01972132247483717</v>
+      </c>
+      <c r="H50">
+        <v>0.06049936921231157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02553528597341757</v>
+        <v>-0.02946008599690709</v>
       </c>
       <c r="C51">
-        <v>0.007605828509488622</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.003695597856883738</v>
+      </c>
+      <c r="D51">
+        <v>-0.01468343591837884</v>
+      </c>
+      <c r="E51">
+        <v>0.01644934884725431</v>
+      </c>
+      <c r="F51">
+        <v>-0.01803549555586868</v>
+      </c>
+      <c r="G51">
+        <v>0.0005560928642391218</v>
+      </c>
+      <c r="H51">
+        <v>-0.006751605947500477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1522030270141244</v>
+        <v>-0.1625799692694241</v>
       </c>
       <c r="C53">
-        <v>0.08343296770514413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05348166460003533</v>
+      </c>
+      <c r="D53">
+        <v>-0.01753293518751547</v>
+      </c>
+      <c r="E53">
+        <v>-0.02409543811991027</v>
+      </c>
+      <c r="F53">
+        <v>-0.01977667650737777</v>
+      </c>
+      <c r="G53">
+        <v>0.003998826518057289</v>
+      </c>
+      <c r="H53">
+        <v>0.160108996305271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05600075719474656</v>
+        <v>-0.05804868544982949</v>
       </c>
       <c r="C54">
-        <v>0.02501584562958088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01283522994996126</v>
+      </c>
+      <c r="D54">
+        <v>-0.01549389614641017</v>
+      </c>
+      <c r="E54">
+        <v>0.0534037973647536</v>
+      </c>
+      <c r="F54">
+        <v>-0.001416411441134189</v>
+      </c>
+      <c r="G54">
+        <v>-0.01058008016969272</v>
+      </c>
+      <c r="H54">
+        <v>0.052145282772257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.10037634406341</v>
+        <v>-0.1035499759988266</v>
       </c>
       <c r="C55">
-        <v>0.05883931143899896</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03637931292822644</v>
+      </c>
+      <c r="D55">
+        <v>-0.02364190480371839</v>
+      </c>
+      <c r="E55">
+        <v>0.02011842083840858</v>
+      </c>
+      <c r="F55">
+        <v>-0.01422907938201299</v>
+      </c>
+      <c r="G55">
+        <v>-0.00459470806648967</v>
+      </c>
+      <c r="H55">
+        <v>0.1440804238459504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1462132035214576</v>
+        <v>-0.1599159890825142</v>
       </c>
       <c r="C56">
-        <v>0.09501819811218958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0649341159787348</v>
+      </c>
+      <c r="D56">
+        <v>-0.01992243135562246</v>
+      </c>
+      <c r="E56">
+        <v>-0.02240222587821937</v>
+      </c>
+      <c r="F56">
+        <v>-0.03715917649719809</v>
+      </c>
+      <c r="G56">
+        <v>0.01263250876884111</v>
+      </c>
+      <c r="H56">
+        <v>0.16341629808381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1225345934724557</v>
+        <v>-0.09779931992279919</v>
       </c>
       <c r="C58">
-        <v>0.007884608319275517</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03377100730379469</v>
+      </c>
+      <c r="D58">
+        <v>-0.03704609723623949</v>
+      </c>
+      <c r="E58">
+        <v>0.1661615141613948</v>
+      </c>
+      <c r="F58">
+        <v>0.02249138078415506</v>
+      </c>
+      <c r="G58">
+        <v>0.06409583335495091</v>
+      </c>
+      <c r="H58">
+        <v>-0.2200967378858283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1159868173733845</v>
+        <v>-0.1366179948968973</v>
       </c>
       <c r="C59">
-        <v>0.08068627722009317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08509073543612893</v>
+      </c>
+      <c r="D59">
+        <v>0.3657010056946368</v>
+      </c>
+      <c r="E59">
+        <v>0.02324690277004472</v>
+      </c>
+      <c r="F59">
+        <v>-0.02029799380779227</v>
+      </c>
+      <c r="G59">
+        <v>0.03572377651123528</v>
+      </c>
+      <c r="H59">
+        <v>0.007120094240972825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2036170270650961</v>
+        <v>-0.2322751781453259</v>
       </c>
       <c r="C60">
-        <v>0.1084362443916013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06886793174588611</v>
+      </c>
+      <c r="D60">
+        <v>-0.03761045172035528</v>
+      </c>
+      <c r="E60">
+        <v>-0.09158570299271372</v>
+      </c>
+      <c r="F60">
+        <v>-0.07699563146245744</v>
+      </c>
+      <c r="G60">
+        <v>-0.02064584925754473</v>
+      </c>
+      <c r="H60">
+        <v>-0.1760685373552787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07861498580109479</v>
+        <v>-0.08805931919504993</v>
       </c>
       <c r="C61">
-        <v>0.05132301683505919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03522630394961369</v>
+      </c>
+      <c r="D61">
+        <v>-0.04315436679846674</v>
+      </c>
+      <c r="E61">
+        <v>0.0001674882388162148</v>
+      </c>
+      <c r="F61">
+        <v>-0.004859819141215987</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001641854213401014</v>
+      </c>
+      <c r="H61">
+        <v>0.0740390274982667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1276010270256895</v>
+        <v>-0.1390587389638507</v>
       </c>
       <c r="C62">
-        <v>0.06841441451290571</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04217739587967476</v>
+      </c>
+      <c r="D62">
+        <v>-0.02870326657336299</v>
+      </c>
+      <c r="E62">
+        <v>-0.05929707877540209</v>
+      </c>
+      <c r="F62">
+        <v>-0.0209987710250268</v>
+      </c>
+      <c r="G62">
+        <v>-0.02538074723747241</v>
+      </c>
+      <c r="H62">
+        <v>0.1751534214296705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05041744327289267</v>
+        <v>-0.0503442467191197</v>
       </c>
       <c r="C63">
-        <v>0.02616121674250426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01404917633556921</v>
+      </c>
+      <c r="D63">
+        <v>-0.01957238687123113</v>
+      </c>
+      <c r="E63">
+        <v>0.05245412610591416</v>
+      </c>
+      <c r="F63">
+        <v>0.01561755055738908</v>
+      </c>
+      <c r="G63">
+        <v>-0.02867842824090933</v>
+      </c>
+      <c r="H63">
+        <v>0.05762474761384197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1063490387968214</v>
+        <v>-0.1094381657042954</v>
       </c>
       <c r="C64">
-        <v>0.02691103701164659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.00463142441112917</v>
+      </c>
+      <c r="D64">
+        <v>-0.03980267429437744</v>
+      </c>
+      <c r="E64">
+        <v>0.04897577220988727</v>
+      </c>
+      <c r="F64">
+        <v>-0.04222701474694639</v>
+      </c>
+      <c r="G64">
+        <v>-0.05210209467347299</v>
+      </c>
+      <c r="H64">
+        <v>0.0603801188994514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1207319127792175</v>
+        <v>-0.1272065359822281</v>
       </c>
       <c r="C65">
-        <v>0.06369002824872563</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04015390869280078</v>
+      </c>
+      <c r="D65">
+        <v>0.0008575264008748383</v>
+      </c>
+      <c r="E65">
+        <v>0.0127017057596766</v>
+      </c>
+      <c r="F65">
+        <v>-0.06146456909649969</v>
+      </c>
+      <c r="G65">
+        <v>-0.05397994737913153</v>
+      </c>
+      <c r="H65">
+        <v>-0.1455978020563976</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1409287649337049</v>
+        <v>-0.154038056237492</v>
       </c>
       <c r="C66">
-        <v>0.07717309322613593</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04560470415668507</v>
+      </c>
+      <c r="D66">
+        <v>-0.1014096519535803</v>
+      </c>
+      <c r="E66">
+        <v>-0.02616855469117447</v>
+      </c>
+      <c r="F66">
+        <v>-0.01936087991506728</v>
+      </c>
+      <c r="G66">
+        <v>-0.04420868990764278</v>
+      </c>
+      <c r="H66">
+        <v>0.1465813318173208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0722176993192053</v>
+        <v>-0.08329709181421417</v>
       </c>
       <c r="C67">
-        <v>0.01450499120302954</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004038524616208148</v>
+      </c>
+      <c r="D67">
+        <v>-0.02998289592792303</v>
+      </c>
+      <c r="E67">
+        <v>0.02575124931932578</v>
+      </c>
+      <c r="F67">
+        <v>-0.01390755413555</v>
+      </c>
+      <c r="G67">
+        <v>0.006068126641918691</v>
+      </c>
+      <c r="H67">
+        <v>0.0311383529318746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05776128151885629</v>
+        <v>-0.05785701347059482</v>
       </c>
       <c r="C68">
-        <v>0.0517067169950361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05657710226267634</v>
+      </c>
+      <c r="D68">
+        <v>0.2703045242974055</v>
+      </c>
+      <c r="E68">
+        <v>0.03674220107486573</v>
+      </c>
+      <c r="F68">
+        <v>-0.01606424127142108</v>
+      </c>
+      <c r="G68">
+        <v>0.0152752289275899</v>
+      </c>
+      <c r="H68">
+        <v>0.0065013620371023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05244274075036449</v>
+        <v>-0.05325631968168051</v>
       </c>
       <c r="C69">
-        <v>0.01874481828709866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005127209313426672</v>
+      </c>
+      <c r="D69">
+        <v>-0.01585627831126611</v>
+      </c>
+      <c r="E69">
+        <v>0.02487176545105356</v>
+      </c>
+      <c r="F69">
+        <v>0.01028593217377407</v>
+      </c>
+      <c r="G69">
+        <v>0.01441842860354633</v>
+      </c>
+      <c r="H69">
+        <v>0.0539867029199653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005491996740187148</v>
+        <v>-0.02670040178233308</v>
       </c>
       <c r="C70">
-        <v>-0.004144041899529957</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004366940967385774</v>
+      </c>
+      <c r="D70">
+        <v>-0.001911131612785189</v>
+      </c>
+      <c r="E70">
+        <v>-0.02370716472153023</v>
+      </c>
+      <c r="F70">
+        <v>-0.03097089341925552</v>
+      </c>
+      <c r="G70">
+        <v>0.01908756540504493</v>
+      </c>
+      <c r="H70">
+        <v>-0.04588278022089445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05719462551373088</v>
+        <v>-0.06018174416644326</v>
       </c>
       <c r="C71">
-        <v>0.05097591064437878</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.0593623218443015</v>
+      </c>
+      <c r="D71">
+        <v>0.2948122952890176</v>
+      </c>
+      <c r="E71">
+        <v>0.03482975849572537</v>
+      </c>
+      <c r="F71">
+        <v>-0.04247988263814165</v>
+      </c>
+      <c r="G71">
+        <v>0.004205319056746874</v>
+      </c>
+      <c r="H71">
+        <v>0.01375789485086475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1381522497140237</v>
+        <v>-0.1474853066238003</v>
       </c>
       <c r="C72">
-        <v>0.06609050849209192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.037591824384338</v>
+      </c>
+      <c r="D72">
+        <v>0.01229280876706733</v>
+      </c>
+      <c r="E72">
+        <v>-0.1244349041293693</v>
+      </c>
+      <c r="F72">
+        <v>0.1507038305284431</v>
+      </c>
+      <c r="G72">
+        <v>-0.1134980340374511</v>
+      </c>
+      <c r="H72">
+        <v>0.02499467750552149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2725278582509885</v>
+        <v>-0.2881674914871123</v>
       </c>
       <c r="C73">
-        <v>0.1164245563527347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04719234792215629</v>
+      </c>
+      <c r="D73">
+        <v>-0.09999156420333805</v>
+      </c>
+      <c r="E73">
+        <v>-0.2125586930994562</v>
+      </c>
+      <c r="F73">
+        <v>-0.1210934019556179</v>
+      </c>
+      <c r="G73">
+        <v>0.1836062339075523</v>
+      </c>
+      <c r="H73">
+        <v>-0.4709840831102788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07949132800993154</v>
+        <v>-0.09216000832957282</v>
       </c>
       <c r="C74">
-        <v>0.0798361002733651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06012991707960419</v>
+      </c>
+      <c r="D74">
+        <v>-0.03221935838121154</v>
+      </c>
+      <c r="E74">
+        <v>-0.004793761935893177</v>
+      </c>
+      <c r="F74">
+        <v>0.007724884323740275</v>
+      </c>
+      <c r="G74">
+        <v>0.04127525003476125</v>
+      </c>
+      <c r="H74">
+        <v>0.1188880242568243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09396435600329198</v>
+        <v>-0.09985758527353264</v>
       </c>
       <c r="C75">
-        <v>0.05636220985991957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02964745762163299</v>
+      </c>
+      <c r="D75">
+        <v>-0.01371469153547803</v>
+      </c>
+      <c r="E75">
+        <v>0.01137935316945382</v>
+      </c>
+      <c r="F75">
+        <v>-0.02750685114398604</v>
+      </c>
+      <c r="G75">
+        <v>0.01413966194593068</v>
+      </c>
+      <c r="H75">
+        <v>0.1099355965107147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.129540423596743</v>
+        <v>-0.1396675168175774</v>
       </c>
       <c r="C76">
-        <v>0.08549931863120924</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05630603553872032</v>
+      </c>
+      <c r="D76">
+        <v>-0.05053541901711365</v>
+      </c>
+      <c r="E76">
+        <v>0.0360485650302701</v>
+      </c>
+      <c r="F76">
+        <v>-0.04325679478338187</v>
+      </c>
+      <c r="G76">
+        <v>-0.005526270404316041</v>
+      </c>
+      <c r="H76">
+        <v>0.1744186006865742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1150785520435051</v>
+        <v>-0.1113298708369257</v>
       </c>
       <c r="C77">
-        <v>0.02350119097383011</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.002865380836092717</v>
+      </c>
+      <c r="D77">
+        <v>-0.02060749811368571</v>
+      </c>
+      <c r="E77">
+        <v>0.02495630605219916</v>
+      </c>
+      <c r="F77">
+        <v>-0.1325058737608187</v>
+      </c>
+      <c r="G77">
+        <v>-0.8835721239938804</v>
+      </c>
+      <c r="H77">
+        <v>-0.1795595063998807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09884353321376708</v>
+        <v>-0.1383797503015098</v>
       </c>
       <c r="C78">
-        <v>0.04082966351504443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03233638417087766</v>
+      </c>
+      <c r="D78">
+        <v>-0.09156411995438261</v>
+      </c>
+      <c r="E78">
+        <v>0.05534763951430411</v>
+      </c>
+      <c r="F78">
+        <v>-0.02914694982207447</v>
+      </c>
+      <c r="G78">
+        <v>-0.0691816794755519</v>
+      </c>
+      <c r="H78">
+        <v>-0.04322944061154895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1461232199453572</v>
+        <v>-0.151837411089096</v>
       </c>
       <c r="C79">
-        <v>0.0824887132933175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04621598635622436</v>
+      </c>
+      <c r="D79">
+        <v>-0.02630306205337757</v>
+      </c>
+      <c r="E79">
+        <v>-0.01180385333790808</v>
+      </c>
+      <c r="F79">
+        <v>-0.0185146660049862</v>
+      </c>
+      <c r="G79">
+        <v>0.02010865024369517</v>
+      </c>
+      <c r="H79">
+        <v>0.1729582025119356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0454768721540504</v>
+        <v>-0.04332421278419184</v>
       </c>
       <c r="C80">
-        <v>0.01684789036566849</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006309049831574357</v>
+      </c>
+      <c r="D80">
+        <v>-0.01846594633938329</v>
+      </c>
+      <c r="E80">
+        <v>-0.006557516258587955</v>
+      </c>
+      <c r="F80">
+        <v>0.004600956547013637</v>
+      </c>
+      <c r="G80">
+        <v>0.03446767359261924</v>
+      </c>
+      <c r="H80">
+        <v>0.04400216320248303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1153573364958929</v>
+        <v>-0.1199643901904988</v>
       </c>
       <c r="C81">
-        <v>0.06645330884484688</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03747359274621791</v>
+      </c>
+      <c r="D81">
+        <v>-0.02285074153260037</v>
+      </c>
+      <c r="E81">
+        <v>0.0299261770779465</v>
+      </c>
+      <c r="F81">
+        <v>-0.01288614726237643</v>
+      </c>
+      <c r="G81">
+        <v>0.04490006938547005</v>
+      </c>
+      <c r="H81">
+        <v>0.1476291814899629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1305306162732052</v>
+        <v>-0.1311276442767806</v>
       </c>
       <c r="C82">
-        <v>0.08175892919938003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.049895224130155</v>
+      </c>
+      <c r="D82">
+        <v>-0.02764765126744497</v>
+      </c>
+      <c r="E82">
+        <v>-0.006389714409515933</v>
+      </c>
+      <c r="F82">
+        <v>-0.05843725511674735</v>
+      </c>
+      <c r="G82">
+        <v>0.03231772776783472</v>
+      </c>
+      <c r="H82">
+        <v>0.1995698219056523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07921172066987298</v>
+        <v>-0.08794289605389376</v>
       </c>
       <c r="C83">
-        <v>-0.003529762774846956</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.02055832198051328</v>
+      </c>
+      <c r="D83">
+        <v>-0.03747602818273894</v>
+      </c>
+      <c r="E83">
+        <v>0.02619006461110708</v>
+      </c>
+      <c r="F83">
+        <v>-0.05376834113928509</v>
+      </c>
+      <c r="G83">
+        <v>0.08435352003337328</v>
+      </c>
+      <c r="H83">
+        <v>-0.05063876773275399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02876875358032186</v>
+        <v>-0.03747029051845257</v>
       </c>
       <c r="C84">
-        <v>0.02546890044211919</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01919323010625142</v>
+      </c>
+      <c r="D84">
+        <v>-0.02963004654379086</v>
+      </c>
+      <c r="E84">
+        <v>0.02010655144839586</v>
+      </c>
+      <c r="F84">
+        <v>0.05759311489608925</v>
+      </c>
+      <c r="G84">
+        <v>0.06542987806898974</v>
+      </c>
+      <c r="H84">
+        <v>0.01034668697298012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.118675696959966</v>
+        <v>-0.1197701386992518</v>
       </c>
       <c r="C85">
-        <v>0.06338681171317895</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03213245999150256</v>
+      </c>
+      <c r="D85">
+        <v>-0.02400283391582659</v>
+      </c>
+      <c r="E85">
+        <v>0.02422446719725688</v>
+      </c>
+      <c r="F85">
+        <v>-0.03920967914849116</v>
+      </c>
+      <c r="G85">
+        <v>0.01340775758471491</v>
+      </c>
+      <c r="H85">
+        <v>0.147127864464266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04945400293065177</v>
+        <v>-0.05810941484787303</v>
       </c>
       <c r="C86">
-        <v>0.0292237507324306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01850819223920314</v>
+      </c>
+      <c r="D86">
+        <v>-0.02393866356758576</v>
+      </c>
+      <c r="E86">
+        <v>0.06654076008680312</v>
+      </c>
+      <c r="F86">
+        <v>-0.02230872820419929</v>
+      </c>
+      <c r="G86">
+        <v>0.01824036985095934</v>
+      </c>
+      <c r="H86">
+        <v>-0.00442508678582829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1215628970371862</v>
+        <v>-0.1227543708895467</v>
       </c>
       <c r="C87">
-        <v>0.07121906503739195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.0352889541425187</v>
+      </c>
+      <c r="D87">
+        <v>-0.07543326433248215</v>
+      </c>
+      <c r="E87">
+        <v>0.02112674935169054</v>
+      </c>
+      <c r="F87">
+        <v>0.007112784915882705</v>
+      </c>
+      <c r="G87">
+        <v>-0.1104961200164771</v>
+      </c>
+      <c r="H87">
+        <v>-0.03562045022032607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05300576685382955</v>
+        <v>-0.06029604535901067</v>
       </c>
       <c r="C88">
-        <v>0.03017788940716273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01890319770406937</v>
+      </c>
+      <c r="D88">
+        <v>-0.02848889841612942</v>
+      </c>
+      <c r="E88">
+        <v>0.02203788759307939</v>
+      </c>
+      <c r="F88">
+        <v>-0.006671115693949339</v>
+      </c>
+      <c r="G88">
+        <v>-0.008635776318600935</v>
+      </c>
+      <c r="H88">
+        <v>0.05262037772822626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07915497609112758</v>
+        <v>-0.09144559753938873</v>
       </c>
       <c r="C89">
-        <v>0.06776051537112993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07723608256718853</v>
+      </c>
+      <c r="D89">
+        <v>0.343166509013263</v>
+      </c>
+      <c r="E89">
+        <v>0.07238792219583616</v>
+      </c>
+      <c r="F89">
+        <v>-0.07985984643079024</v>
+      </c>
+      <c r="G89">
+        <v>0.01799287517461679</v>
+      </c>
+      <c r="H89">
+        <v>0.006907969745476513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07129995607807382</v>
+        <v>-0.07854101451332819</v>
       </c>
       <c r="C90">
-        <v>0.05996797970844626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06677883496009036</v>
+      </c>
+      <c r="D90">
+        <v>0.3107109656685828</v>
+      </c>
+      <c r="E90">
+        <v>0.05997612967960538</v>
+      </c>
+      <c r="F90">
+        <v>-0.001595721811217262</v>
+      </c>
+      <c r="G90">
+        <v>0.003397835484704095</v>
+      </c>
+      <c r="H90">
+        <v>0.007894619891520916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08432494823471925</v>
+        <v>-0.08935311096913841</v>
       </c>
       <c r="C91">
-        <v>0.05540634424407654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03347496254122076</v>
+      </c>
+      <c r="D91">
+        <v>-0.03083081722762454</v>
+      </c>
+      <c r="E91">
+        <v>0.01669185157655134</v>
+      </c>
+      <c r="F91">
+        <v>-0.002784851438343759</v>
+      </c>
+      <c r="G91">
+        <v>0.05249031703548226</v>
+      </c>
+      <c r="H91">
+        <v>0.07757535498191263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07272059745716049</v>
+        <v>-0.07944819839771967</v>
       </c>
       <c r="C92">
-        <v>0.07347249953291431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08049062986754733</v>
+      </c>
+      <c r="D92">
+        <v>0.3418582802404156</v>
+      </c>
+      <c r="E92">
+        <v>0.04588408594401934</v>
+      </c>
+      <c r="F92">
+        <v>-0.03936029336566416</v>
+      </c>
+      <c r="G92">
+        <v>-0.006849295564006957</v>
+      </c>
+      <c r="H92">
+        <v>0.02653218178058817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06474963865161965</v>
+        <v>-0.0769374454288501</v>
       </c>
       <c r="C93">
-        <v>0.06616272457879983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07809941548990056</v>
+      </c>
+      <c r="D93">
+        <v>0.3080187966700138</v>
+      </c>
+      <c r="E93">
+        <v>0.0388287720823335</v>
+      </c>
+      <c r="F93">
+        <v>-0.04040758751895112</v>
+      </c>
+      <c r="G93">
+        <v>-0.01044699287204131</v>
+      </c>
+      <c r="H93">
+        <v>-0.009955207103056059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1326229258732929</v>
+        <v>-0.1269356371531747</v>
       </c>
       <c r="C94">
-        <v>0.06064779061498238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02266485011177719</v>
+      </c>
+      <c r="D94">
+        <v>-0.04711927707456769</v>
+      </c>
+      <c r="E94">
+        <v>-0.0004515075235431214</v>
+      </c>
+      <c r="F94">
+        <v>-0.02119554230480407</v>
+      </c>
+      <c r="G94">
+        <v>0.05070714085450009</v>
+      </c>
+      <c r="H94">
+        <v>0.09714910343194928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1186249017618941</v>
+        <v>-0.1294072779420491</v>
       </c>
       <c r="C95">
-        <v>0.03658473294296195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008463766731129698</v>
+      </c>
+      <c r="D95">
+        <v>-0.06153002270344341</v>
+      </c>
+      <c r="E95">
+        <v>0.01438971151708902</v>
+      </c>
+      <c r="F95">
+        <v>-0.04726699666148424</v>
+      </c>
+      <c r="G95">
+        <v>0.01101466665148613</v>
+      </c>
+      <c r="H95">
+        <v>-0.02718494409799573</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2024262403668308</v>
+        <v>-0.2092606695460635</v>
       </c>
       <c r="C97">
-        <v>0.04482017656211157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.004231671167788739</v>
+      </c>
+      <c r="D97">
+        <v>0.09514232843357925</v>
+      </c>
+      <c r="E97">
+        <v>-0.3482834567581773</v>
+      </c>
+      <c r="F97">
+        <v>0.8509423785619508</v>
+      </c>
+      <c r="G97">
+        <v>-0.09346092032248447</v>
+      </c>
+      <c r="H97">
+        <v>0.01183358574684333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2431019359091179</v>
+        <v>-0.2749726498970495</v>
       </c>
       <c r="C98">
-        <v>0.08001928586663662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03459237468860524</v>
+      </c>
+      <c r="D98">
+        <v>-0.06006508035770938</v>
+      </c>
+      <c r="E98">
+        <v>-0.1653950036853671</v>
+      </c>
+      <c r="F98">
+        <v>-0.08808242966221405</v>
+      </c>
+      <c r="G98">
+        <v>0.2697892481042781</v>
+      </c>
+      <c r="H98">
+        <v>-0.2316233728987334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4641296014463431</v>
+        <v>-0.2833749817367623</v>
       </c>
       <c r="C99">
-        <v>-0.8701544966050283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.936367329443095</v>
+      </c>
+      <c r="D99">
+        <v>0.12791877093654</v>
+      </c>
+      <c r="E99">
+        <v>0.0648345875178969</v>
+      </c>
+      <c r="F99">
+        <v>-0.04372196773462853</v>
+      </c>
+      <c r="G99">
+        <v>0.01236123547922172</v>
+      </c>
+      <c r="H99">
+        <v>0.06528625382964175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0400536510801754</v>
+        <v>-0.04849264200292561</v>
       </c>
       <c r="C101">
-        <v>0.03188053499988627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02615899475067158</v>
+      </c>
+      <c r="D101">
+        <v>-0.005071871464945539</v>
+      </c>
+      <c r="E101">
+        <v>0.05720153104150619</v>
+      </c>
+      <c r="F101">
+        <v>0.002000918561923617</v>
+      </c>
+      <c r="G101">
+        <v>0.005501105504508698</v>
+      </c>
+      <c r="H101">
+        <v>0.08298251458204479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
